--- a/500all/speech_level/speeches_CHRG-114hhrg21538.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21538.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Rokita. Good morning, and welcome to today's hearing. When the committee last met to discuss the Every Student Succeeds Act, we heard concerns from State and local education leaders that the administration was not implementing the law in a way that respects its letter and intent.    Since that time, the Department of Education has released a regulatory proposal that I find so unprecedented and so unlawful, in fact, that it demands its own examination, which we are going to do today.    The proposal I am referring to is the department's proposed ``supplement not supplant'' regulation. This proposal changes the longstanding policy that Federal funds supplement rather than supplant State and local resources.    For years, the rule was applied differently depending on how many low-income students the school served. As a result, schools faced different requirements. Some are more onerous than others.    That changed with the bipartisan Every Student Succeeds Act, legislation that again was passed with overwhelming support from both Republicans and Democrats.    Now, according to the law, the rule should be enforced equally across every school. To do that, the bipartisan law, again that the President signed, says districts only have to show that funds are distributed in a way that does not take into account Federal resources, and Congress deliberately chose not to prescribe a specific approach or outcome. I remember this. It was in the final negotiations.    The law also clearly prohibits the Secretary of Education from interfering in the process. However, that is exactly what the department and the Secretary is doing with their proposed rule, and the consequences will be significant. It would be one thing if it was a distinction without a difference, but I think as we are going to hear today, the consequences will be significant.    As Chairman Kline himself explained when the regulation was proposed, it threatens to impose a multibillion regulatory tax on schools across the country. To comply with the policy, many school districts will have no choice but to change their hiring practices and relocate their teachers. Other communities may have to raise taxes because they simply do not have the resources to meet this new burden. Some districts may have to do both.    So regardless of how a district must cope with the new regulation, the bottom line is that schools will be forced to make decisions based on getting numbers to work and not on what is in the best interest of their students, and the Federal Government will have unprecedented control over local education funding.    The department has said its proposal will provide ``flexibility,'' but it really just dictates a short list of options, and frankly bad options at that. At the end of the day, it will be America's poorest neighborhoods that are impacted the most, and that is the last thing we intended as Congress when it passed the Every Student Succeeds Act.    In fact, Congress considered similar reforms during the debate of the legislation. We focused, for example, on a separate provision you may recall, comparability; instead, Congress specifically chose not to go down that road, not to touch that provision, and flat out rejected adopting a policy like the very one the department is proposing now.    The department insists that their supplement not supplant proposal is not related to comparability, but even the nonpartisan Congressional Research Service has explained how this proposal is essentially an indirect way to amend the comparability provision.    In short, this regulatory scheme is an attempt to accomplish something Congress specifically chose not to do. Anyone who was involved in passing the Every Student Succeeds Act knows that, whether they are willing to say so or not.    Still, even if the department were confused about the intent of the law, nothing excuses the fact that what it is proposing is simply unlawful. Again, if you look at the quotes on the screen, you can see that this language is taken directly from the law, the Every Student Succeeds Act specifically prohibits the Secretary from, quote ``prescribing the specific methodology a local education agency uses to allocate State and local funds to each school receiving the assistance,'' close quote.    The department claims that is not what they are doing, but with its limited list of options, it is clear that is exactly what is happening. That is why we have called on the department to throw this punitive policy out and to implement the law as it was written and as intended.    For too long, our schools were forced to contend with a failed top down approach to education, and that all changed with the Every Student Succeeds Act, but it seems the department has not learned this or chooses to ignore it, and is intent on undermining those important bipartisan reforms.    We will do everything within this committee's power to ensure that does not happen. This hearing is part of our efforts to protect students, families, and taxpayers from this unprecedented and unlawful regulatory scheme, and just as importantly, to help every child receive an excellent education, which I know that is why we are all here.    The best chance we have to accomplish that critical goal is to ensure that the Every Student Succeeds Act is implemented according to the letter and intent of the law as we wrote it.    I look forward to hearing from our witnesses today and how this proposal is impacting their local communities across this country.    With that, I will yield to Ranking Member Fudge, Ms. Fudge, for her opening remarks.</t>
   </si>
   <si>
     <t>412327</t>
   </si>
   <si>
-    <t>Marcia L. Fudge</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you, Mr. Chairman, and thank you all for being here to provide testimony today.    Certainly, this is a bipartisan law, and I believe if fully implemented, it will fulfill congressional intent and honor the Elementary and Secondary Education Act's civil rights legacy to promote and protect the right to educational opportunity for our Nation's most vulnerable children.    Money matters. Poverty, especially when highly concentrated, presents unique educational challenges. It takes more money, not less, to provide equitable educational opportunities in high poverty communities, which is why Congress enacted Title I to serve as a supplemental funding stream for our Nation's neediest schools.    Simply put, Title I is Congress' longstanding recognition that equal is not always equitable. Unfortunately, the intent of Title I has gone unrealized in school districts that continue to spend less to educate children in high poverty schools, perpetuating educational disparities within the district, despite drawing dollars from the same tax base.    For too long, school district decisions on budget allocation have gone unchecked, with schools serving high poverty neighborhoods getting less than their fair share.    The supplement not supplant, or SNS, requirement that Title I funds be in addition to State and local investment in schools receiving Federal dollars was first adopted by Congress in 1969, and is the most important fiscal accountability provision in the entire law.    In ESSA, Congress amended the provision. Compliance with SNS can no longer be determined using cost test demonstrations that allowed inequities to go unresolved. Congress did not agree, however, to remove or waive compliance with the SNS requirement.    To support enforcement of the requirement, the U.S. Department of Education has a replacement proposed funds-based standard for compliance. The replacement honors the intent of Congress to permit for greater flexibility in how Title I dollars are spent, while ensuring those dollars are in fact supplemental to State and local investment.    According to the proposal, each school district, not the Federal Government, determines its own formula for allocation of State and local funds. If a district's Title I schools are receiving their full share of State and local funds based on the district's formula, Title I dollars are truly supplemental, and the district is fully compliant with Federal law. That seems to be reasonable to me.    The proposed rule seeks to address the annual underfunding of high poverty schools. Meeting this new funds-based standard for SNS compliance will likely be uncomfortable in some school districts, those where inequities have gone unchecked. It will likely drive hard conversations and new found accountability and transparency for local budgeting processes.    While all of this may make compliance challenging, none of it disqualifies the proposal as inappropriate or illegal.    This is just how my colleagues on the other side of the aisle are characterizing the proposal, as part of a larger GOP narrative, attacking the legitimacy of the executive branch.    While their outrage and chest pumping is loud and distracting, I implore members of this subcommittee to not be distracted from the real issue.    Nothing about the proposal supplants the law or local authority as the title of this hearing would suggest, unless they are speaking of the local authority to undermine congressional intent by using Title I dollars to plug budget holes that shortchange high poverty schools.    I respectfully remind my friends in the majority that SNS is a Federal requirement to be enforced by the Federal agency. Nothing in ESSA allows a local educational authority to supersede that enforcement.    Let me be clear. Enforcement of the supplement not supplant requirement is the responsibility of the department. It is my expectation and the expectation of Congress that the Secretary fulfill his responsibility to set an enforceable compliance standard for the nearly 15,000 school districts across the country.    In ESSA, Congress made it very clear that supplement not supplant would remain a requirement. We chose to amend it, not to eliminate it. At this point, I find the rhetoric of those opposed disingenuous and devoid of any suggestion of what would constitute an acceptable standard of compliance. Decrying the standard put forth by the department without suggestion for what the standard should be is the same as asking for no standard and no enforcement.    That, my friends, was not the bipartisan agreement of ESSA. With the enactment of ESSA, we have the opportunity to create a more equitable system of public education. It would be inexcusable for the Secretary to render the supplement not supplant requirement meaningless without a Federal standard for compliance.    I thank the witnesses for taking time out of their busy schedules to participate in today's hearing, and look forward to learning about their experiences and recommendations for ensuring a smooth and successful transition to the new law in a way that preserves the critical Federal role to promote educational equity.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -73,36 +67,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Canavero</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Canavero. Thank you, Chairman Rokita, Chairman Kline, Ranking Member Fudge, and Ranking Member Scott, members of the subcommittee for the opportunity to testify today, and for your work to approve the Every Student Succeeds Act.    This new law will allow Nevada to build on our existing education improvement efforts while at the same time setting high standards for student success.    On behalf of the many chiefs like myself who are using this opportunity present under the Every Student Succeeds Act to transition our conversations away from Federal mandate to State priorities and finding opportunities within the Federal law and Federal funding to support our priorities, again, thank you.    One of the most important aspects of the Every Student Succeeds Act is its focus on equity, as was mentioned here, its civil rights legacy. We must ensure all students have the opportunity to succeed and having access to the economic opportunities that a quality education provides, and that States, districts, and schools should be held accountable for clear and measurable results.    In Nevada, Governor Brian Sandoval and the legislature have taken a number of steps to promote equity and improve student achievement. In 2005 alone, including additional financial and program supports for English learners and for students living in a poorest zip codes in Nevada; support for effective literacy instruction to raise student achievement in reading; several new programs for consistently underperforming schools, including an Achievement School District, which allows the State to intervene in failing schools; a Social Worker in Schools Program; student access to technology and professional development for teachers to utilize that technology in the classroom; and addressing educator quality by providing PD and improving the educator pipeline throughout the State.    Each of these programs represents a substantial financial investment by the State to promote equity and achievement for our 460,000 students and schools. All told, Nevada's legislature invested roughly 340 million into additional funding into education in 2016 and 2017 alone. That is approximately a 10 percent increase in the State's education budget all going to students who need it most. And we intend to grow this investment on a biannual basis.    It was these investments and my Governor and State strong commitment to equity that lead me to testify here today about the Department of Education's proposed supplement not supplant regulations. I know my fellow chief State school officers share similar concerns.    The department's goals are laudable. It is clear underperforming schools need more funding to support their students' needs. However, imposing sweeping new Federal mandates on how school districts must spend their State and local funds in addition to the complicated way the proposed regulations approach equity and school funding could actually hurt State and local efforts to provide equity for all students.    Here is a few reasons why. First, the regulations look only at the amount spent in Title I schools versus non-Title I schools. While the total dollars spent is important, it is not the only measure of how we support students. These regulations do not take into account other equity measures, such as improved access to educational opportunities like advanced placement, magnet schools, career and technical education programs, the arts, or effective educators. By ignoring these measures, the proposed regulations could harm State and local efforts to promote these measures to benefit students.    In Nevada, our schools are providing these types of opportunities for all kids, and we seek to expand them. I fear the proposed regulations could result in significant restructuring of these opportunities to allow students to support a perverse incentive to lower the number of offerings to make sure we are in compliance with the proposed fiscal rules.    Second, districts will have to manage spending centrally to comply with the proposed regulations. This means that any decision that affects spending, which we know is virtually all decisions, will have to be vetted through the district finance office for compliance checks. This will affect everything from school hiring and purchasing to curriculum.    In my State, we are working to return these decisions to the local level, to those who understand students' individual needs best. In fact, our State just approved a plan, a bipartisan committee and the State board approved a plan for the reorganization of Clark County School District, our largest school district in Las Vegas, which shifts the major decisionmaking around capital, human, financial, operations, and academic planning from the central service of the district to each school site.    Third and finally, I am concerned about what the regulations do not say. For example, the rule does not define many important terms like what it means to distribute ``almost all'' of a district's money to schools, or what it means to have a ``high proportion'' of disadvantaged students in a non-Title I school to qualify for one of the exceptions.    Importantly, the rule does not address what State education agencies should do if there is noncompliance. While these seem like technical issues, they will have a significant impact on my State's investments in an effort to promote equitable opportunities for all kids.    I care deeply about equity. I am working closely with my Governor and my State legislature to promote greater equity and achievement for all kids in my State. We have made great strides to create a more equitable education system, and I urge the department to reconsider its proposed rule to interpret supplement not supplant in a way that is both consistent with the spirit of the Every Student Succeeds Act and promotes equity.    Thank you, sir, for the time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Doctor. Mr. Owens, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Owens</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Owens. Good morning, Chairman Rokita, Chairman Kline, Ranking Member Fudge, and Ranking Member Scott, and honorable members of this committee.    My name is Ryan Owens, and I am the executive director of the Cooperative Council for Oklahoma School Administration. Thank you for the opportunity to be here today. CCOSA represents all of Oklahoma's public, private, and charter school administrators. With more than 2,700 members actively serving almost 700,000 students, we work each day to give voice to the issues impacting educational attainment in the Sooner State.    In the interest of brevity, I am not going to detail the specifics of the proposed regulations. I am going to focus my comments on the realities that school districts and superintendents will face in implementing the proposed rule, and what it could mean for the students they serve.    Over 66 percent of school sites in Oklahoma qualify as Title I. Superintendents in Oklahoma and across the Nation are acutely aware of the consequences of inequitable resource allocation. Prescriptive regulations like these are not the solution. These regulations create new administrative burdens and encourage compliance-driven decisionmaking, which robs communities of their ability to govern their local schools.    It would be far more helpful for the department to issue technical assistance that instructs States and districts about how to achieve the goal of equitable distribution of resources.    In seeking to equalize State and local spending among schools, the proposed regulations, while noble in their goal, reach far beyond the intent of ESSA, which merely requires LEAs to demonstrate that Title I schools receive at least as much State and local funds as they would otherwise receive if they were not a Title I school.    Currently, in Oklahoma, site level administrators are given the flexibility to assess student needs and determine the amount of resources necessary to facilitate instruction. Under the proposed regulation, district administration will have to override school level decisions to ensure balanced resource allocation between Title I and non-Title I schools without regard to how those resources are used to benefit children.    The proposed rule is focused on teacher salaries as part of the calculation for equitable resource allocation among Title I and non-Title I schools. Destroying stability within classrooms and among schools is a major concern as last-minute movement of staff and other resources is likely in districts with multiple sites.    Due to our State's budget crisis, Oklahoma schools have eliminated over 1,500 teaching positions and we still have over 500 vacancies systemwide. How will Oklahoma districts using long-term substitutes and larger class sizes satisfy a requirement for equalized spending when the resource to be measured, teachers, does not exist?    If the proposed rule becomes law, cost variability with enrichment programs will no longer be tolerable due to the need for uniform spending among Title I and non-Title I schools. For example, John Marshall Mid-High School in Oklahoma City Public Schools, a Title I school, offers students the opportunity to participate in a Finance Academy where they learn about the finance industry and work with university accounting students to file income tax statements at no cost for eligible Oklahomans. This is the type of specialized program at risk under the proposed rule.    Another concern is enforcement of the proposed rule, and what will happen to districts if they fall out of compliance.    The proposed regulation is silent about the meaning of key terms, as was mentioned. We are all left confused about what it means to allocate ``almost all'' of State and local funds to school sites. The lack of clarity and the meaning of key terms in the proposed rule increases the risk of uneven enforcement.    Recently, in Oklahoma, in one school, there was a profoundly disabled student that was required to be served out of State. The annual cost for these services exceeded $250,000. Would these costs be included in a compliance calculation for equitable fund distribution and, if so, how would a district equalize the effect of such allocation?    Will local bond levies or maintenance of the physical plant be included in these cost calculations and, if so, will the proposed rule seek to override the decision of local voters by equalizing construction and improvement among Title I and non-Title I schools?    The proposed rule could undermine local support for future bond issues as it could get harder to pass bond issues in compliance with the rule.    ESSA recognized that those closest to students and schools had the best hope for improving learning conditions. The regulations proposed by the department take away the very flexibility ESSA guarantees.    I respectfully ask that the department revisit the proposed regulations and require of schools only what ESSA demands, which is to demonstrate that Title I schools receive as much State and local funds as they would otherwise receive if they did not participate in Title I.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Mr. Owens. Mr. Sargrad, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>Sargrad</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sargrad. Thank you, Chairman Rokita, Chairman Kline, Ranking Member Fudge, and Ranking Member Scott for the opportunity to speak here today on the supplement not supplant provision in the Every Student Succeeds Act.    And I just want to note that I bring here today my perspective as a former teacher and special ed aide as well. That is how I started my career in education, and that is something I bring with me wherever I go.    As you all know, in 1965, Congress designed Title I of the Elementary and Secondary Education Act to provide additional resources to disadvantaged students in poor schools. Within years, it was clear that poor students did not receive their fair share of resources.    To address this inequity, Congress soon after approved the first supplement not supplant provision to ensure that districts did not use Federal money to replace State and local dollars.    On September 6 of this year, the Department of Education issued draft regulations on ESSA's updated supplement not supplant provision taking another important step towards fulfilling the law's requirements.    But before I dive into the research and policy, I just want to step back and note that we are not considering here just dry academic questions. Even as we sit here today, in too many schools across the country, too many low-income students are in crumbling schools without access to effective and experienced teachers. They do not have rigorous courses. They do not have the wrap around services that they need to be successful.    In fact, just two weeks ago in Baltimore, on a hot September day, every school closed early because those schools did not have air conditioning and those students lost valuable learning time.    As Ranking Member Fudge said earlier, money matters in education. It matters particularly for students from low-income families. This is common sense, and it is supported by a growing body of research.    For low-income students, a 10 percent increase in spending increased adult wages by nearly 10 percent. Another study found that greater State spending on low-income students dramatically improved student learning in both reading and in math. Students in poorer schools, however, continue to receive less than their richer peers.    The Department of Education found in approximately 1,500 school districts across the country, about 5,700 schools receive on average $440,000 less per year than wealthier schools in the same district. That is a lot of money, $440,000 could let a school hire 8 new guidance counselors, it could give a $10,000 bonus to 40 teachers.    This inequity also happens across districts, and while there is significant variation between States, high poverty districts on average spend 15 percent less per pupil than low poverty districts.    In Pennsylvania, where I grew up, poorer school districts spent 33 percent less per pupil than wealthier districts in the State.    As a result of these policies, children of color often suffer the most. Compared to high poverty and high minority schools,w wealthier and low minority schools offer more rigorous core programs. Wealthier schools are twice as likely to offer a full range of math and science courses, they offer three times as many AP courses, and they are twice as likely to offer dual enrollment opportunities.    But again, these are not just facts and figures. Every day real kids walk into real schools with so few resources that every single one of us would find them unacceptable for our own child.    In one Detroit elementary and middle school, black mold covers the gym floor and ceilings are full of exposed wires. In the William Penn School District, just down the road from where I grew up, students like Jameria Miller ``race to class to get the best blankets'' because they needed to stay warm since the school's metal walls have no insulation.    From the passage of the original ESEA in 1965, the Federal Government's role has been to protect historically disadvantaged students and ensure they have the same opportunities as their more advantaged peers. Beginning with the original supplement not supplant provision, the Federal Government has had a responsibility to enforce this requirement of the law, and today's ESSA is no different.    Districts have historically shown compliance with the supplement not supplant requirement by ensuring that every service purchased with Title I funds was ``supplemental'' and would not have been provided otherwise, and this meant that districts often limited their spending to programs they could easily show were supplemental and not necessarily programs that were the most impactful, and Congress rightly with the new law stopped that shortsighted practice. They did not make districts justify every purchase.    Now instead, districts must demonstrate that their methods of funding make sure that poorer schools get their fair share.    Recognizing that these historical funding inequities are a problem without an easy solution, the new regulation provides multiple options for districts to demonstrate compliance, and States can develop their own compliance tests.    There is additional flexibility for schools serving lots of students with disabilities, lots of English learners, districts with small schools or schools with a single grade span. And there is plenty of time to comply.    While this change will require extra efforts from school districts, it does not mean that they will have to use completely new strategies to distribute their school funding. Ninety percent of districts will already be in compliance. That does not mean we can rest on our laurels. Those 10 percent of districts have to do the hard work to show they are fairly supporting low-income schools, and they have to do that with State and local funds before the Federal dollars, but this hard work is worth it.    We know these funding inequities remain. We know that money matters, and the department's regulations give flexible options and time to comply so that districts can be thoughtful about investing as part of their broader plan to support students in need.    Thank you again for the opportunity to be here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you. Dr. Gordon, you are recognized for five minutes. TESTIMONY OF NORA GORDON, ASSOCIATE PROFESSOR, McCOURT SCHOOL </t>
   </si>
   <si>
-    <t>Gordon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gordon. Chairman Kline, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee, thank you for the opportunity to testify today.    For decades, compliance with supplement not supplant was tested by looking at each individual Title I expenditure. When this rule was in place, in 2014, in the course of my academic research, I interviewed district Title I managers across four States and found that compliance, not the effective use of funds, was their central concern. But despite their concern and attention to compliance, administrators were confused about what was and was not legal. What districts did understand was that Title I should only support extra things that were different from the core curriculum.    This led to districts purchasing staff or services with Title I that were often unaligned with a core curriculum because they were easy to audit under the old rule rather than because of student needs.    Meanwhile, research suggests that effective school improvement requires comprehensive strategies and alignment to good curriculum, not an assortment of add-ons.    The problems with the old supplement not supplant rule have been around and documented by researchers since the 1970s. When it looked like reauthorization of ESSA might be possible in 2012, the left-leaning Center for American Progress, Mr. Sargrad's organization, and the right-leaning American Enterprise Institute jointly published recommendations describing how supplement not supplant should be fixed.    CAP and AEI stated that the test currently in use should be replaced, and I quote, ``with a simpler, more objective test, specifically: if districts can document that the manner in which they allocate state and local resources to schools is ``Title I neutral,'' they should be clear of suspicion around supplanting of nonfederal funds with Title I dollars.''    ESSA's new supplement not supplant test follows those recommendation and transforms what was already an option for schoolwide programs under No Child Left Behind and makes it the compliance standard for all Title I schools.    As Ranking Member Fudge noted, ESSA absolutely does not waive the requirement to supplement not supplant. It is just the opposite; that language in the statute itself contains a compliance standard which could set an auditable test for supplement not supplant.    The standard as presented in plain language, which may contribute to very common misperceptions that the law has no test and without regulation supplement not supplant, cannot be enforced. In short, districts have to explain how they are funding their schools and show that this method ensures that each Title I school receives all of the State and local funds it would have if it did not participate in Title I.    In July 2015, the department itself explained how a district could pass such a test for its schoolwide schools. The language of ESSA simply expands the schoolwide approach to supplement not supplant under No Child Left Behind to all Title I schools.    The department's proposed rule takes an entirely different approach to supplement not supplant than the statute's language or the department's own previous guidance on the topic. It mandates that Title I schools get a certain baseline of State and local funds measured in dollars. This approach essentially requires ad hoc adjustments in school level resources instead of a consistent and transparent allocation methodology.    The goal of greater equity here is critical. Mr. Sargrad's testimony highlights how high the stakes are on getting equity right, but the department's approach does not get it right. It has major potential negative policy and practical implications, including districts needing to cut entire programs, like music, art, or PE, in order to get the money they need to make the numbers come out right; putting more expensive but less effective teachers into Title I schools; the potential to reduce local support for public schools and the taxes that support them; the possible loss of State and local funds for low-income schools that do not participate in Title I, and there are many of these schools.    I just want to briefly turn to the cost-benefit analysis the department has offered and state this is a superficial analysis, and the data it is based on are not reliable. The department does not know and cannot know how districts will respond to the rule. This is the whole issue, how will districts respond, and that is what will determine the cost and the benefits to students.    ESSA also contains a critically important new reporting provision that requires districts to report per pupil spending data at the school level. This will result in much greater transparency, but it will take time to implement.    The department should help districts develop good transparent systems that generate reliable spending information rather than proposing a complicated rule that could hurt the very students it aims to help.</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t xml:space="preserve">    Chairman Rokita. Thank you. And I will yield back and recognize the chairman of the full committee, Mr. Scott, for 5 minutes.</t>
   </si>
   <si>
-    <t>Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t xml:space="preserve">    Chairman Rokita. I thank the gentleman. Now, let me take this opportunity in high honor to introduce the chairman of the full committee, a great American, and most importantly, a benevolent and forgiving leader, Mr. Kline, for 5 minutes.</t>
   </si>
   <si>
-    <t>Kline</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Kline. Clinging fearlessly to my job and title for a few more weeks, I thank the chairman.    The discussion here fundamentally is about what happens when the Congress takes a bill, works it through, passes it, the President signs it into law, and you have a new law, and an administration, any administration, then goes through the regulatory process and starts to promulgate regulations to allow for the implementation of that law.    The issue is that the administration, any administration, is not allowed to decide what parts of the law it wants to enforce and what parts it wants to change and what parts it wants to leave out. The administration is not allowed to rewrite law.    And so, there are some of us who feel like that is in fact what is happening here with this administration and this Secretary's implementation of the Every Student Succeeds Act.    So, Dr. Gordon, I want to come back to you and go through a pretty step by step series of questions and answers so this will be perfectly clear, at least to me and you. I am going to go down the same line that Chairman Rokita was taking up in his questions.    So, Dr. Gordon, the Center for American Progress and the American Enterprise Institute had a specific proposal addressing supplement not supplant, and that proposal was adopted by Congress. Is that correct?</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Clark. Thank you, Chairman Rokita, and Ranking Member Fudge, and to all the panelists for being here today.    First, I want to give Mr. Sargrad a chance to respond to the line of questioning we have had for Dr. Gordon. If you could tell us about CAP's role in this definition and how you see the implementation of the current supplement but not supplant rolling out, and is it in line with your research?</t>
   </si>
   <si>
@@ -343,9 +316,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Chairman, thank you. Thank you for members of the panel for being here on this important topic.    Let me bring our discussion right back to where it is supposed to be, on the United States Department of Education, and quite frankly, the intent of Congress. Because that is the friction point we have at this point. My question I will open-up to all.    Most of you have talked to some extent about the potential impact on special programs, things like career and technical education, magnet schools, art programs, physical education mentioned. I am sure there may be others. Be curious to hear what others you have concerns about with how the department is moving ahead contrary to the intent of Congress.    Can you explain more about why these programs will be at risk and how those programs are addressing equity concerns? Let's start with Dr. Canavero, please.</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chairman Rokita and Ranking Member Fudge. Implementing the Every Student Succeeds Act is going to further the goals of equity, and I am glad that seems to be something everyone agrees on is going to help all of our children across the country, students of color, low-income students, Native students, English learners, students with disabilities.    And certainly the supplement not supplant requirement plays a critical role in achieving this goal. I know educators, parents, and students in high poverty schools are frequently shortchanged, and reports show that about 40 percent of Title I schools receive less personnel funding per pupil than non-Title I schools, and schools that serve almost entirely students of color receive about $700 less per student than schools that are predominantly white.    There is a disparity that needs to be addressed, and it is especially troubling if we know that in some cases, it is not just equal funding that is equitable, the schools serving communities of concentrated poverty actually need additional resources and support. I think that is the goal.    When Congress added this supplement not supplant requirement to ESSA back in 1970, I was not here then, but I think that was certainly the goal, so that those high needs schools would receive that additional support, and for decades Congress has stood by that principle.    I am a former State legislator and I think many of us are, and understanding that need to send that message that these Federal dollars are not to replace your K-12 investment.    We had a hearing in June, and Chairman Kline noted that the law, that ESSA, requires districts to show that funds are distributed fairly before they receive Title I dollars. And I do not think anyone disagrees with that, I mean that is certainly the intention here.    And to uphold our intention, Congress expects the Department of Education to enforce the supplement not supplant requirement, so there need to be some clear standards. I do not think anyone would disagree with that.    I wanted to ask you, Mr. Sargrad, one concern that we have heard is that this supplement not supplant requirement could force districts to reassign teachers in ways that may not be in the best interest of students. As the law supports a move to greater equity, I want to make sure it does not create undue disruption for hard working educators, and given your expertise as a teacher and an official responsible for overseeing Title I, how will States and districts be able to create greater parity in school funding while also minimizing that uncertainty for educators and making sure that school staffing decisions are really driven by the needs of the students.    And if when you are discussing this, could you talk about the difference between like large urban districts. I have 25 school districts in my congressional district, and they really differ. Some of them are very large and some of them are very small and rural. So would you talk about that as well, and how this might affect the difference between rural and urban schools, but really with a focus on whether this is going to create undue disruption for educators.</t>
   </si>
   <si>
@@ -391,9 +358,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Sure, Mr. Canavero, I have a couple of questions. But first, I would like to congratulate your State; I was not aware they had passed a program allowing poorer kids, all kids, to attend schools of their choice. There are so many backward looking people who hate these programs because they think that if they send their children to a private school, they should not have the school watered down with other kids. Maybe they do not want their children going to school with, and I think it took a lot of guts of your legislature to do that, so you can say I congratulate them for looking out for the kids.    I used to be in the State legislature, and I understand the interplay between State and local authority. Your testimony discusses ambiguity for the States in balancing their Federal enforcement obligation with the realities of State and local laws that may limit a district's ability to comply or a State's ability to enforce compliance.    Can you describe the kind of State and local laws you are talking about and how they might conflict with this rule, and can you describe the process that State and locals will have to undertake to come into compliance with the department's proposal?</t>
   </si>
   <si>
@@ -430,9 +394,6 @@
     <t xml:space="preserve">    Chairman Rokita. The gentleman's time has expired. I thank the gentleman. Mr. Polis, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. I want to thank the witnesses for being today, and Ranking Member Fudge and Chairman Rokita. Last fall, I had the opportunity to be on the conference committee to reauthorize ESEA, and when we were in our final negotiations, one theme remained consistent: ESEA is a civil rights law first and foremost; it was created with the idea that all students regardless of where they come from, their race or ethnicity, deserve a fair shot.    And the issue we are discussing today really goes to the core of ESEA's role in fulfilling that mission. And I think it is important that the discussion today is around making sure that the money provided in ESEA for the neediest schools actually gets to these schools.    I briefly wanted to address the quote that Chairman Rokita put on the wall regarding a congressional prohibition around a specific methodology. Now, you know, I am not an attorney but the simple read of the congressional intent there is a specific methodology is prohibited, not several particular approaches that are dictated, not several specific or parameters.    If Congress had not wanted the department to give several possible approaches, the prohibition would have been against guidelines at all being issued, against several different approaches being outlined.    But the particular bar is a specific methodology, and of course, there is not a specific methodology in the department's proposed regs. There are in fact several very contrary to the word ``a'' proposed approaches.    I also wanted to follow up on Mr. Thompson's question to Dr. Canavero. I join Mr. Thompson in being a big fan of vocational and career programs. I wanted to ask Dr. Canavero if he is aware in Nevada of instances of Title I funds being used for some of the things Mr. Thompson mentioned, like for instance, the physical equipment for welding programs or shop programs.</t>
   </si>
   <si>
@@ -460,9 +421,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Chairman Rokita. Thank you for this informative hearing today, and thank you to the panel for your testimony and your time, really appreciated it.    I know a number of the members of this committee were State legislators, I have heard them indicate that, and I think we have all seen the heavy hand of the Federal Government as a State legislator. Many times these programs were forced down upon State legislatures, they call them ``incentives,'' but they are in the form of a mandate, many case, an unfunded mandate.    As a State legislator, I knew how very damaging they were to what we were trying to do on behalf of our local school districts. I am also a parent, so I have three children in public schools today, and I am very concerned about the state of our public schools, and that is why I was very proud of what we did with the ESEA, which was a direct attempt at making sure we ended these failed top down policies, and we reduced the Federal rule, and really restored local control to K-12 education, which was a bipartisan effort.    It was the intent of Congress. I thought the law was clear and unambiguous. We made every effort to try to drill down and polish to ensure that there would be no questions as to interpretation, but of course, now we are seeing that.    We had the director in several times expressing our concerns about implementation. And now we are faced with an implementation question. I am sure this is going to continue as time goes on.    I have a question and I guess I do not know who to ask it to, and please feel free to weigh in if you would like to, but I would like to begin with Dr. Gordon, because I noticed in your bio you focus on fiscal federalism and American educational policy and the current historical Federal role in elementary and secondary education, which I think is specific to this question.    The department has estimated that all but about 1,500 school districts around the country will be in compliance with what they are calling the ``special rule.'' In your testimony, you questioned this data. How valid do you think the estimate is?</t>
   </si>
   <si>
@@ -493,9 +451,6 @@
     <t xml:space="preserve">    Chairman Rokita. I thank the gentleman for yielding. Ms. Adams, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Adams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair, Ranking Member Fudge, and thank you to the panelists for your testimony.    Mr. Sargrad, what in your estimation would happen without an enforceable standard for compliance with the supplement not supplement requirement that can be used by State auditors, and what happens if it is left completely open for interpretation?</t>
   </si>
   <si>
@@ -521,9 +476,6 @@
   </si>
   <si>
     <t>400097</t>
-  </si>
-  <si>
-    <t>Susan A. Davis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman and ranking chairman as well. I am very sorry that I missed all of your discussion before this. But as a former school board member for nine years, I am just trying to understand. Certainly, the situation in San Diego, California is different, for example, then in Oklahoma.    But it seems that you are asking for a very clear rule on this, and at the same time, asking for perhaps no rule, and I wonder if you could clarify for me what you feel is absolutely best.    One of the things I know is that nothing makes people crazier, of course, when they are trying to follow the rules and having difficulty with it, and on the other hand you have just from a governance point of view the problem of a school board member who is trying to balance out very, very close numbers perhaps, percentages of young people in one group or another who need to be served, and it is minuscule in many cases, and yet they are having to decide and direct resources.    How would you do that? Because we are struggling with this, obviously. What needs to be done? How clear or on the other hand, how muddled? Which makes more sense?</t>
@@ -1009,11 +961,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1033,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1061,11 +1009,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1085,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1113,11 +1057,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1137,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1165,11 +1105,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1189,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1217,11 +1153,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1241,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1269,11 +1201,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1293,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1321,11 +1249,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1345,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1373,11 +1297,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1397,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1425,11 +1345,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1449,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1477,11 +1393,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1501,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1529,11 +1441,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1553,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1581,11 +1489,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1605,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1633,11 +1537,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1657,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1685,11 +1585,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1709,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1737,11 +1633,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1761,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1789,11 +1681,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1813,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1841,11 +1729,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1865,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1891,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1917,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1943,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1969,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1995,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2021,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2047,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2073,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2099,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2125,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2151,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2177,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2203,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2229,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2255,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2281,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2307,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2333,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2359,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2385,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2411,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2437,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2463,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2489,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2515,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2541,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2567,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2593,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2619,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2645,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2673,11 +2497,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2697,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2723,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2749,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2775,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2801,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2827,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2853,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2879,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2905,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2931,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2957,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2983,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3009,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3035,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3061,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3087,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3113,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3139,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3165,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>82</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3193,11 +2977,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3217,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3243,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3269,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3295,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3321,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3347,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3373,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3401,11 +3169,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3425,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3451,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3477,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3503,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3529,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3555,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3581,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3609,11 +3361,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3633,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3659,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3685,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3713,11 +3457,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3737,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3763,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3789,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>124</v>
-      </c>
-      <c r="G109" t="s">
-        <v>125</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3815,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3841,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>125</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3867,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3893,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3919,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3945,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3971,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s">
-        <v>125</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3997,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4025,11 +3745,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4049,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4075,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4101,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4127,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4153,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4179,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4205,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>138</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4233,11 +3937,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4257,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>147</v>
-      </c>
-      <c r="G127" t="s">
-        <v>148</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4283,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4309,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" t="s">
-        <v>148</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4335,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4361,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G131" t="s">
-        <v>148</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4387,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4413,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>147</v>
-      </c>
-      <c r="G133" t="s">
-        <v>148</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4439,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4465,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>147</v>
-      </c>
-      <c r="G135" t="s">
-        <v>148</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4493,11 +4177,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4517,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>159</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4543,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4569,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>159</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4595,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4621,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>159</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4647,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4673,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>159</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4701,11 +4369,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4725,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>168</v>
-      </c>
-      <c r="G145" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4751,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4777,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
-      </c>
-      <c r="G147" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4803,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4829,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
-      </c>
-      <c r="G149" t="s">
-        <v>169</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4855,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4883,11 +4537,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4907,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4933,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4959,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4985,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5011,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5037,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5063,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5089,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5115,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5141,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5167,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5193,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5219,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5245,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5271,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5297,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5323,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5351,11 +4969,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5375,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5403,11 +5017,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5427,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5455,11 +5065,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21538.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21538.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Rokita</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Rokita. Good morning, and welcome to today's hearing. When the committee last met to discuss the Every Student Succeeds Act, we heard concerns from State and local education leaders that the administration was not implementing the law in a way that respects its letter and intent.    Since that time, the Department of Education has released a regulatory proposal that I find so unprecedented and so unlawful, in fact, that it demands its own examination, which we are going to do today.    The proposal I am referring to is the department's proposed ``supplement not supplant'' regulation. This proposal changes the longstanding policy that Federal funds supplement rather than supplant State and local resources.    For years, the rule was applied differently depending on how many low-income students the school served. As a result, schools faced different requirements. Some are more onerous than others.    That changed with the bipartisan Every Student Succeeds Act, legislation that again was passed with overwhelming support from both Republicans and Democrats.    Now, according to the law, the rule should be enforced equally across every school. To do that, the bipartisan law, again that the President signed, says districts only have to show that funds are distributed in a way that does not take into account Federal resources, and Congress deliberately chose not to prescribe a specific approach or outcome. I remember this. It was in the final negotiations.    The law also clearly prohibits the Secretary of Education from interfering in the process. However, that is exactly what the department and the Secretary is doing with their proposed rule, and the consequences will be significant. It would be one thing if it was a distinction without a difference, but I think as we are going to hear today, the consequences will be significant.    As Chairman Kline himself explained when the regulation was proposed, it threatens to impose a multibillion regulatory tax on schools across the country. To comply with the policy, many school districts will have no choice but to change their hiring practices and relocate their teachers. Other communities may have to raise taxes because they simply do not have the resources to meet this new burden. Some districts may have to do both.    So regardless of how a district must cope with the new regulation, the bottom line is that schools will be forced to make decisions based on getting numbers to work and not on what is in the best interest of their students, and the Federal Government will have unprecedented control over local education funding.    The department has said its proposal will provide ``flexibility,'' but it really just dictates a short list of options, and frankly bad options at that. At the end of the day, it will be America's poorest neighborhoods that are impacted the most, and that is the last thing we intended as Congress when it passed the Every Student Succeeds Act.    In fact, Congress considered similar reforms during the debate of the legislation. We focused, for example, on a separate provision you may recall, comparability; instead, Congress specifically chose not to go down that road, not to touch that provision, and flat out rejected adopting a policy like the very one the department is proposing now.    The department insists that their supplement not supplant proposal is not related to comparability, but even the nonpartisan Congressional Research Service has explained how this proposal is essentially an indirect way to amend the comparability provision.    In short, this regulatory scheme is an attempt to accomplish something Congress specifically chose not to do. Anyone who was involved in passing the Every Student Succeeds Act knows that, whether they are willing to say so or not.    Still, even if the department were confused about the intent of the law, nothing excuses the fact that what it is proposing is simply unlawful. Again, if you look at the quotes on the screen, you can see that this language is taken directly from the law, the Every Student Succeeds Act specifically prohibits the Secretary from, quote ``prescribing the specific methodology a local education agency uses to allocate State and local funds to each school receiving the assistance,'' close quote.    The department claims that is not what they are doing, but with its limited list of options, it is clear that is exactly what is happening. That is why we have called on the department to throw this punitive policy out and to implement the law as it was written and as intended.    For too long, our schools were forced to contend with a failed top down approach to education, and that all changed with the Every Student Succeeds Act, but it seems the department has not learned this or chooses to ignore it, and is intent on undermining those important bipartisan reforms.    We will do everything within this committee's power to ensure that does not happen. This hearing is part of our efforts to protect students, families, and taxpayers from this unprecedented and unlawful regulatory scheme, and just as importantly, to help every child receive an excellent education, which I know that is why we are all here.    The best chance we have to accomplish that critical goal is to ensure that the Every Student Succeeds Act is implemented according to the letter and intent of the law as we wrote it.    I look forward to hearing from our witnesses today and how this proposal is impacting their local communities across this country.    With that, I will yield to Ranking Member Fudge, Ms. Fudge, for her opening remarks.</t>
   </si>
   <si>
     <t>412327</t>
   </si>
   <si>
+    <t>Fudge</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fudge. Thank you, Mr. Chairman, and thank you all for being here to provide testimony today.    Certainly, this is a bipartisan law, and I believe if fully implemented, it will fulfill congressional intent and honor the Elementary and Secondary Education Act's civil rights legacy to promote and protect the right to educational opportunity for our Nation's most vulnerable children.    Money matters. Poverty, especially when highly concentrated, presents unique educational challenges. It takes more money, not less, to provide equitable educational opportunities in high poverty communities, which is why Congress enacted Title I to serve as a supplemental funding stream for our Nation's neediest schools.    Simply put, Title I is Congress' longstanding recognition that equal is not always equitable. Unfortunately, the intent of Title I has gone unrealized in school districts that continue to spend less to educate children in high poverty schools, perpetuating educational disparities within the district, despite drawing dollars from the same tax base.    For too long, school district decisions on budget allocation have gone unchecked, with schools serving high poverty neighborhoods getting less than their fair share.    The supplement not supplant, or SNS, requirement that Title I funds be in addition to State and local investment in schools receiving Federal dollars was first adopted by Congress in 1969, and is the most important fiscal accountability provision in the entire law.    In ESSA, Congress amended the provision. Compliance with SNS can no longer be determined using cost test demonstrations that allowed inequities to go unresolved. Congress did not agree, however, to remove or waive compliance with the SNS requirement.    To support enforcement of the requirement, the U.S. Department of Education has a replacement proposed funds-based standard for compliance. The replacement honors the intent of Congress to permit for greater flexibility in how Title I dollars are spent, while ensuring those dollars are in fact supplemental to State and local investment.    According to the proposal, each school district, not the Federal Government, determines its own formula for allocation of State and local funds. If a district's Title I schools are receiving their full share of State and local funds based on the district's formula, Title I dollars are truly supplemental, and the district is fully compliant with Federal law. That seems to be reasonable to me.    The proposed rule seeks to address the annual underfunding of high poverty schools. Meeting this new funds-based standard for SNS compliance will likely be uncomfortable in some school districts, those where inequities have gone unchecked. It will likely drive hard conversations and new found accountability and transparency for local budgeting processes.    While all of this may make compliance challenging, none of it disqualifies the proposal as inappropriate or illegal.    This is just how my colleagues on the other side of the aisle are characterizing the proposal, as part of a larger GOP narrative, attacking the legitimacy of the executive branch.    While their outrage and chest pumping is loud and distracting, I implore members of this subcommittee to not be distracted from the real issue.    Nothing about the proposal supplants the law or local authority as the title of this hearing would suggest, unless they are speaking of the local authority to undermine congressional intent by using Title I dollars to plug budget holes that shortchange high poverty schools.    I respectfully remind my friends in the majority that SNS is a Federal requirement to be enforced by the Federal agency. Nothing in ESSA allows a local educational authority to supersede that enforcement.    Let me be clear. Enforcement of the supplement not supplant requirement is the responsibility of the department. It is my expectation and the expectation of Congress that the Secretary fulfill his responsibility to set an enforceable compliance standard for the nearly 15,000 school districts across the country.    In ESSA, Congress made it very clear that supplement not supplant would remain a requirement. We chose to amend it, not to eliminate it. At this point, I find the rhetoric of those opposed disingenuous and devoid of any suggestion of what would constitute an acceptable standard of compliance. Decrying the standard put forth by the department without suggestion for what the standard should be is the same as asking for no standard and no enforcement.    That, my friends, was not the bipartisan agreement of ESSA. With the enactment of ESSA, we have the opportunity to create a more equitable system of public education. It would be inexcusable for the Secretary to render the supplement not supplant requirement meaningless without a Federal standard for compliance.    I thank the witnesses for taking time out of their busy schedules to participate in today's hearing, and look forward to learning about their experiences and recommendations for ensuring a smooth and successful transition to the new law in a way that preserves the critical Federal role to promote educational equity.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -67,24 +82,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Canavero</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Canavero. Thank you, Chairman Rokita, Chairman Kline, Ranking Member Fudge, and Ranking Member Scott, members of the subcommittee for the opportunity to testify today, and for your work to approve the Every Student Succeeds Act.    This new law will allow Nevada to build on our existing education improvement efforts while at the same time setting high standards for student success.    On behalf of the many chiefs like myself who are using this opportunity present under the Every Student Succeeds Act to transition our conversations away from Federal mandate to State priorities and finding opportunities within the Federal law and Federal funding to support our priorities, again, thank you.    One of the most important aspects of the Every Student Succeeds Act is its focus on equity, as was mentioned here, its civil rights legacy. We must ensure all students have the opportunity to succeed and having access to the economic opportunities that a quality education provides, and that States, districts, and schools should be held accountable for clear and measurable results.    In Nevada, Governor Brian Sandoval and the legislature have taken a number of steps to promote equity and improve student achievement. In 2005 alone, including additional financial and program supports for English learners and for students living in a poorest zip codes in Nevada; support for effective literacy instruction to raise student achievement in reading; several new programs for consistently underperforming schools, including an Achievement School District, which allows the State to intervene in failing schools; a Social Worker in Schools Program; student access to technology and professional development for teachers to utilize that technology in the classroom; and addressing educator quality by providing PD and improving the educator pipeline throughout the State.    Each of these programs represents a substantial financial investment by the State to promote equity and achievement for our 460,000 students and schools. All told, Nevada's legislature invested roughly 340 million into additional funding into education in 2016 and 2017 alone. That is approximately a 10 percent increase in the State's education budget all going to students who need it most. And we intend to grow this investment on a biannual basis.    It was these investments and my Governor and State strong commitment to equity that lead me to testify here today about the Department of Education's proposed supplement not supplant regulations. I know my fellow chief State school officers share similar concerns.    The department's goals are laudable. It is clear underperforming schools need more funding to support their students' needs. However, imposing sweeping new Federal mandates on how school districts must spend their State and local funds in addition to the complicated way the proposed regulations approach equity and school funding could actually hurt State and local efforts to provide equity for all students.    Here is a few reasons why. First, the regulations look only at the amount spent in Title I schools versus non-Title I schools. While the total dollars spent is important, it is not the only measure of how we support students. These regulations do not take into account other equity measures, such as improved access to educational opportunities like advanced placement, magnet schools, career and technical education programs, the arts, or effective educators. By ignoring these measures, the proposed regulations could harm State and local efforts to promote these measures to benefit students.    In Nevada, our schools are providing these types of opportunities for all kids, and we seek to expand them. I fear the proposed regulations could result in significant restructuring of these opportunities to allow students to support a perverse incentive to lower the number of offerings to make sure we are in compliance with the proposed fiscal rules.    Second, districts will have to manage spending centrally to comply with the proposed regulations. This means that any decision that affects spending, which we know is virtually all decisions, will have to be vetted through the district finance office for compliance checks. This will affect everything from school hiring and purchasing to curriculum.    In my State, we are working to return these decisions to the local level, to those who understand students' individual needs best. In fact, our State just approved a plan, a bipartisan committee and the State board approved a plan for the reorganization of Clark County School District, our largest school district in Las Vegas, which shifts the major decisionmaking around capital, human, financial, operations, and academic planning from the central service of the district to each school site.    Third and finally, I am concerned about what the regulations do not say. For example, the rule does not define many important terms like what it means to distribute ``almost all'' of a district's money to schools, or what it means to have a ``high proportion'' of disadvantaged students in a non-Title I school to qualify for one of the exceptions.    Importantly, the rule does not address what State education agencies should do if there is noncompliance. While these seem like technical issues, they will have a significant impact on my State's investments in an effort to promote equitable opportunities for all kids.    I care deeply about equity. I am working closely with my Governor and my State legislature to promote greater equity and achievement for all kids in my State. We have made great strides to create a more equitable education system, and I urge the department to reconsider its proposed rule to interpret supplement not supplant in a way that is both consistent with the spirit of the Every Student Succeeds Act and promotes equity.    Thank you, sir, for the time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Doctor. Mr. Owens, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Owens</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Owens. Good morning, Chairman Rokita, Chairman Kline, Ranking Member Fudge, and Ranking Member Scott, and honorable members of this committee.    My name is Ryan Owens, and I am the executive director of the Cooperative Council for Oklahoma School Administration. Thank you for the opportunity to be here today. CCOSA represents all of Oklahoma's public, private, and charter school administrators. With more than 2,700 members actively serving almost 700,000 students, we work each day to give voice to the issues impacting educational attainment in the Sooner State.    In the interest of brevity, I am not going to detail the specifics of the proposed regulations. I am going to focus my comments on the realities that school districts and superintendents will face in implementing the proposed rule, and what it could mean for the students they serve.    Over 66 percent of school sites in Oklahoma qualify as Title I. Superintendents in Oklahoma and across the Nation are acutely aware of the consequences of inequitable resource allocation. Prescriptive regulations like these are not the solution. These regulations create new administrative burdens and encourage compliance-driven decisionmaking, which robs communities of their ability to govern their local schools.    It would be far more helpful for the department to issue technical assistance that instructs States and districts about how to achieve the goal of equitable distribution of resources.    In seeking to equalize State and local spending among schools, the proposed regulations, while noble in their goal, reach far beyond the intent of ESSA, which merely requires LEAs to demonstrate that Title I schools receive at least as much State and local funds as they would otherwise receive if they were not a Title I school.    Currently, in Oklahoma, site level administrators are given the flexibility to assess student needs and determine the amount of resources necessary to facilitate instruction. Under the proposed regulation, district administration will have to override school level decisions to ensure balanced resource allocation between Title I and non-Title I schools without regard to how those resources are used to benefit children.    The proposed rule is focused on teacher salaries as part of the calculation for equitable resource allocation among Title I and non-Title I schools. Destroying stability within classrooms and among schools is a major concern as last-minute movement of staff and other resources is likely in districts with multiple sites.    Due to our State's budget crisis, Oklahoma schools have eliminated over 1,500 teaching positions and we still have over 500 vacancies systemwide. How will Oklahoma districts using long-term substitutes and larger class sizes satisfy a requirement for equalized spending when the resource to be measured, teachers, does not exist?    If the proposed rule becomes law, cost variability with enrichment programs will no longer be tolerable due to the need for uniform spending among Title I and non-Title I schools. For example, John Marshall Mid-High School in Oklahoma City Public Schools, a Title I school, offers students the opportunity to participate in a Finance Academy where they learn about the finance industry and work with university accounting students to file income tax statements at no cost for eligible Oklahomans. This is the type of specialized program at risk under the proposed rule.    Another concern is enforcement of the proposed rule, and what will happen to districts if they fall out of compliance.    The proposed regulation is silent about the meaning of key terms, as was mentioned. We are all left confused about what it means to allocate ``almost all'' of State and local funds to school sites. The lack of clarity and the meaning of key terms in the proposed rule increases the risk of uneven enforcement.    Recently, in Oklahoma, in one school, there was a profoundly disabled student that was required to be served out of State. The annual cost for these services exceeded $250,000. Would these costs be included in a compliance calculation for equitable fund distribution and, if so, how would a district equalize the effect of such allocation?    Will local bond levies or maintenance of the physical plant be included in these cost calculations and, if so, will the proposed rule seek to override the decision of local voters by equalizing construction and improvement among Title I and non-Title I schools?    The proposed rule could undermine local support for future bond issues as it could get harder to pass bond issues in compliance with the rule.    ESSA recognized that those closest to students and schools had the best hope for improving learning conditions. The regulations proposed by the department take away the very flexibility ESSA guarantees.    I respectfully ask that the department revisit the proposed regulations and require of schools only what ESSA demands, which is to demonstrate that Title I schools receive as much State and local funds as they would otherwise receive if they did not participate in Title I.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you, Mr. Owens. Mr. Sargrad, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>Sargrad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sargrad. Thank you, Chairman Rokita, Chairman Kline, Ranking Member Fudge, and Ranking Member Scott for the opportunity to speak here today on the supplement not supplant provision in the Every Student Succeeds Act.    And I just want to note that I bring here today my perspective as a former teacher and special ed aide as well. That is how I started my career in education, and that is something I bring with me wherever I go.    As you all know, in 1965, Congress designed Title I of the Elementary and Secondary Education Act to provide additional resources to disadvantaged students in poor schools. Within years, it was clear that poor students did not receive their fair share of resources.    To address this inequity, Congress soon after approved the first supplement not supplant provision to ensure that districts did not use Federal money to replace State and local dollars.    On September 6 of this year, the Department of Education issued draft regulations on ESSA's updated supplement not supplant provision taking another important step towards fulfilling the law's requirements.    But before I dive into the research and policy, I just want to step back and note that we are not considering here just dry academic questions. Even as we sit here today, in too many schools across the country, too many low-income students are in crumbling schools without access to effective and experienced teachers. They do not have rigorous courses. They do not have the wrap around services that they need to be successful.    In fact, just two weeks ago in Baltimore, on a hot September day, every school closed early because those schools did not have air conditioning and those students lost valuable learning time.    As Ranking Member Fudge said earlier, money matters in education. It matters particularly for students from low-income families. This is common sense, and it is supported by a growing body of research.    For low-income students, a 10 percent increase in spending increased adult wages by nearly 10 percent. Another study found that greater State spending on low-income students dramatically improved student learning in both reading and in math. Students in poorer schools, however, continue to receive less than their richer peers.    The Department of Education found in approximately 1,500 school districts across the country, about 5,700 schools receive on average $440,000 less per year than wealthier schools in the same district. That is a lot of money, $440,000 could let a school hire 8 new guidance counselors, it could give a $10,000 bonus to 40 teachers.    This inequity also happens across districts, and while there is significant variation between States, high poverty districts on average spend 15 percent less per pupil than low poverty districts.    In Pennsylvania, where I grew up, poorer school districts spent 33 percent less per pupil than wealthier districts in the State.    As a result of these policies, children of color often suffer the most. Compared to high poverty and high minority schools,w wealthier and low minority schools offer more rigorous core programs. Wealthier schools are twice as likely to offer a full range of math and science courses, they offer three times as many AP courses, and they are twice as likely to offer dual enrollment opportunities.    But again, these are not just facts and figures. Every day real kids walk into real schools with so few resources that every single one of us would find them unacceptable for our own child.    In one Detroit elementary and middle school, black mold covers the gym floor and ceilings are full of exposed wires. In the William Penn School District, just down the road from where I grew up, students like Jameria Miller ``race to class to get the best blankets'' because they needed to stay warm since the school's metal walls have no insulation.    From the passage of the original ESEA in 1965, the Federal Government's role has been to protect historically disadvantaged students and ensure they have the same opportunities as their more advantaged peers. Beginning with the original supplement not supplant provision, the Federal Government has had a responsibility to enforce this requirement of the law, and today's ESSA is no different.    Districts have historically shown compliance with the supplement not supplant requirement by ensuring that every service purchased with Title I funds was ``supplemental'' and would not have been provided otherwise, and this meant that districts often limited their spending to programs they could easily show were supplemental and not necessarily programs that were the most impactful, and Congress rightly with the new law stopped that shortsighted practice. They did not make districts justify every purchase.    Now instead, districts must demonstrate that their methods of funding make sure that poorer schools get their fair share.    Recognizing that these historical funding inequities are a problem without an easy solution, the new regulation provides multiple options for districts to demonstrate compliance, and States can develop their own compliance tests.    There is additional flexibility for schools serving lots of students with disabilities, lots of English learners, districts with small schools or schools with a single grade span. And there is plenty of time to comply.    While this change will require extra efforts from school districts, it does not mean that they will have to use completely new strategies to distribute their school funding. Ninety percent of districts will already be in compliance. That does not mean we can rest on our laurels. Those 10 percent of districts have to do the hard work to show they are fairly supporting low-income schools, and they have to do that with State and local funds before the Federal dollars, but this hard work is worth it.    We know these funding inequities remain. We know that money matters, and the department's regulations give flexible options and time to comply so that districts can be thoughtful about investing as part of their broader plan to support students in need.    Thank you again for the opportunity to be here today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Rokita. Thank you. Dr. Gordon, you are recognized for five minutes. TESTIMONY OF NORA GORDON, ASSOCIATE PROFESSOR, McCOURT SCHOOL </t>
   </si>
   <si>
+    <t>Gordon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gordon. Chairman Kline, Chairman Rokita, Ranking Member Fudge, and members of the subcommittee, thank you for the opportunity to testify today.    For decades, compliance with supplement not supplant was tested by looking at each individual Title I expenditure. When this rule was in place, in 2014, in the course of my academic research, I interviewed district Title I managers across four States and found that compliance, not the effective use of funds, was their central concern. But despite their concern and attention to compliance, administrators were confused about what was and was not legal. What districts did understand was that Title I should only support extra things that were different from the core curriculum.    This led to districts purchasing staff or services with Title I that were often unaligned with a core curriculum because they were easy to audit under the old rule rather than because of student needs.    Meanwhile, research suggests that effective school improvement requires comprehensive strategies and alignment to good curriculum, not an assortment of add-ons.    The problems with the old supplement not supplant rule have been around and documented by researchers since the 1970s. When it looked like reauthorization of ESSA might be possible in 2012, the left-leaning Center for American Progress, Mr. Sargrad's organization, and the right-leaning American Enterprise Institute jointly published recommendations describing how supplement not supplant should be fixed.    CAP and AEI stated that the test currently in use should be replaced, and I quote, ``with a simpler, more objective test, specifically: if districts can document that the manner in which they allocate state and local resources to schools is ``Title I neutral,'' they should be clear of suspicion around supplanting of nonfederal funds with Title I dollars.''    ESSA's new supplement not supplant test follows those recommendation and transforms what was already an option for schoolwide programs under No Child Left Behind and makes it the compliance standard for all Title I schools.    As Ranking Member Fudge noted, ESSA absolutely does not waive the requirement to supplement not supplant. It is just the opposite; that language in the statute itself contains a compliance standard which could set an auditable test for supplement not supplant.    The standard as presented in plain language, which may contribute to very common misperceptions that the law has no test and without regulation supplement not supplant, cannot be enforced. In short, districts have to explain how they are funding their schools and show that this method ensures that each Title I school receives all of the State and local funds it would have if it did not participate in Title I.    In July 2015, the department itself explained how a district could pass such a test for its schoolwide schools. The language of ESSA simply expands the schoolwide approach to supplement not supplant under No Child Left Behind to all Title I schools.    The department's proposed rule takes an entirely different approach to supplement not supplant than the statute's language or the department's own previous guidance on the topic. It mandates that Title I schools get a certain baseline of State and local funds measured in dollars. This approach essentially requires ad hoc adjustments in school level resources instead of a consistent and transparent allocation methodology.    The goal of greater equity here is critical. Mr. Sargrad's testimony highlights how high the stakes are on getting equity right, but the department's approach does not get it right. It has major potential negative policy and practical implications, including districts needing to cut entire programs, like music, art, or PE, in order to get the money they need to make the numbers come out right; putting more expensive but less effective teachers into Title I schools; the potential to reduce local support for public schools and the taxes that support them; the possible loss of State and local funds for low-income schools that do not participate in Title I, and there are many of these schools.    I just want to briefly turn to the cost-benefit analysis the department has offered and state this is a superficial analysis, and the data it is based on are not reliable. The department does not know and cannot know how districts will respond to the rule. This is the whole issue, how will districts respond, and that is what will determine the cost and the benefits to students.    ESSA also contains a critically important new reporting provision that requires districts to report per pupil spending data at the school level. This will result in much greater transparency, but it will take time to implement.    The department should help districts develop good transparent systems that generate reliable spending information rather than proposing a complicated rule that could hurt the very students it aims to help.</t>
   </si>
   <si>
@@ -133,6 +160,9 @@
     <t xml:space="preserve">    Chairman Rokita. Thank you. And I will yield back and recognize the chairman of the full committee, Mr. Scott, for 5 minutes.</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -241,6 +271,9 @@
     <t xml:space="preserve">    Chairman Rokita. I thank the gentleman. Now, let me take this opportunity in high honor to introduce the chairman of the full committee, a great American, and most importantly, a benevolent and forgiving leader, Mr. Kline, for 5 minutes.</t>
   </si>
   <si>
+    <t>Kline</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Kline. Clinging fearlessly to my job and title for a few more weeks, I thank the chairman.    The discussion here fundamentally is about what happens when the Congress takes a bill, works it through, passes it, the President signs it into law, and you have a new law, and an administration, any administration, then goes through the regulatory process and starts to promulgate regulations to allow for the implementation of that law.    The issue is that the administration, any administration, is not allowed to decide what parts of the law it wants to enforce and what parts it wants to change and what parts it wants to leave out. The administration is not allowed to rewrite law.    And so, there are some of us who feel like that is in fact what is happening here with this administration and this Secretary's implementation of the Every Student Succeeds Act.    So, Dr. Gordon, I want to come back to you and go through a pretty step by step series of questions and answers so this will be perfectly clear, at least to me and you. I am going to go down the same line that Chairman Rokita was taking up in his questions.    So, Dr. Gordon, the Center for American Progress and the American Enterprise Institute had a specific proposal addressing supplement not supplant, and that proposal was adopted by Congress. Is that correct?</t>
   </si>
   <si>
@@ -289,6 +322,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Clark. Thank you, Chairman Rokita, and Ranking Member Fudge, and to all the panelists for being here today.    First, I want to give Mr. Sargrad a chance to respond to the line of questioning we have had for Dr. Gordon. If you could tell us about CAP's role in this definition and how you see the implementation of the current supplement but not supplant rolling out, and is it in line with your research?</t>
   </si>
   <si>
@@ -316,6 +355,12 @@
     <t>412317</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Chairman, thank you. Thank you for members of the panel for being here on this important topic.    Let me bring our discussion right back to where it is supposed to be, on the United States Department of Education, and quite frankly, the intent of Congress. Because that is the friction point we have at this point. My question I will open-up to all.    Most of you have talked to some extent about the potential impact on special programs, things like career and technical education, magnet schools, art programs, physical education mentioned. I am sure there may be others. Be curious to hear what others you have concerns about with how the department is moving ahead contrary to the intent of Congress.    Can you explain more about why these programs will be at risk and how those programs are addressing equity concerns? Let's start with Dr. Canavero, please.</t>
   </si>
   <si>
@@ -343,6 +388,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Chairman Rokita and Ranking Member Fudge. Implementing the Every Student Succeeds Act is going to further the goals of equity, and I am glad that seems to be something everyone agrees on is going to help all of our children across the country, students of color, low-income students, Native students, English learners, students with disabilities.    And certainly the supplement not supplant requirement plays a critical role in achieving this goal. I know educators, parents, and students in high poverty schools are frequently shortchanged, and reports show that about 40 percent of Title I schools receive less personnel funding per pupil than non-Title I schools, and schools that serve almost entirely students of color receive about $700 less per student than schools that are predominantly white.    There is a disparity that needs to be addressed, and it is especially troubling if we know that in some cases, it is not just equal funding that is equitable, the schools serving communities of concentrated poverty actually need additional resources and support. I think that is the goal.    When Congress added this supplement not supplant requirement to ESSA back in 1970, I was not here then, but I think that was certainly the goal, so that those high needs schools would receive that additional support, and for decades Congress has stood by that principle.    I am a former State legislator and I think many of us are, and understanding that need to send that message that these Federal dollars are not to replace your K-12 investment.    We had a hearing in June, and Chairman Kline noted that the law, that ESSA, requires districts to show that funds are distributed fairly before they receive Title I dollars. And I do not think anyone disagrees with that, I mean that is certainly the intention here.    And to uphold our intention, Congress expects the Department of Education to enforce the supplement not supplant requirement, so there need to be some clear standards. I do not think anyone would disagree with that.    I wanted to ask you, Mr. Sargrad, one concern that we have heard is that this supplement not supplant requirement could force districts to reassign teachers in ways that may not be in the best interest of students. As the law supports a move to greater equity, I want to make sure it does not create undue disruption for hard working educators, and given your expertise as a teacher and an official responsible for overseeing Title I, how will States and districts be able to create greater parity in school funding while also minimizing that uncertainty for educators and making sure that school staffing decisions are really driven by the needs of the students.    And if when you are discussing this, could you talk about the difference between like large urban districts. I have 25 school districts in my congressional district, and they really differ. Some of them are very large and some of them are very small and rural. So would you talk about that as well, and how this might affect the difference between rural and urban schools, but really with a focus on whether this is going to create undue disruption for educators.</t>
   </si>
   <si>
@@ -358,6 +409,9 @@
     <t>412661</t>
   </si>
   <si>
+    <t>Grothman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grothman. Sure, Mr. Canavero, I have a couple of questions. But first, I would like to congratulate your State; I was not aware they had passed a program allowing poorer kids, all kids, to attend schools of their choice. There are so many backward looking people who hate these programs because they think that if they send their children to a private school, they should not have the school watered down with other kids. Maybe they do not want their children going to school with, and I think it took a lot of guts of your legislature to do that, so you can say I congratulate them for looking out for the kids.    I used to be in the State legislature, and I understand the interplay between State and local authority. Your testimony discusses ambiguity for the States in balancing their Federal enforcement obligation with the realities of State and local laws that may limit a district's ability to comply or a State's ability to enforce compliance.    Can you describe the kind of State and local laws you are talking about and how they might conflict with this rule, and can you describe the process that State and locals will have to undertake to come into compliance with the department's proposal?</t>
   </si>
   <si>
@@ -394,6 +448,9 @@
     <t xml:space="preserve">    Chairman Rokita. The gentleman's time has expired. I thank the gentleman. Mr. Polis, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Polis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chairman. I want to thank the witnesses for being today, and Ranking Member Fudge and Chairman Rokita. Last fall, I had the opportunity to be on the conference committee to reauthorize ESEA, and when we were in our final negotiations, one theme remained consistent: ESEA is a civil rights law first and foremost; it was created with the idea that all students regardless of where they come from, their race or ethnicity, deserve a fair shot.    And the issue we are discussing today really goes to the core of ESEA's role in fulfilling that mission. And I think it is important that the discussion today is around making sure that the money provided in ESEA for the neediest schools actually gets to these schools.    I briefly wanted to address the quote that Chairman Rokita put on the wall regarding a congressional prohibition around a specific methodology. Now, you know, I am not an attorney but the simple read of the congressional intent there is a specific methodology is prohibited, not several particular approaches that are dictated, not several specific or parameters.    If Congress had not wanted the department to give several possible approaches, the prohibition would have been against guidelines at all being issued, against several different approaches being outlined.    But the particular bar is a specific methodology, and of course, there is not a specific methodology in the department's proposed regs. There are in fact several very contrary to the word ``a'' proposed approaches.    I also wanted to follow up on Mr. Thompson's question to Dr. Canavero. I join Mr. Thompson in being a big fan of vocational and career programs. I wanted to ask Dr. Canavero if he is aware in Nevada of instances of Title I funds being used for some of the things Mr. Thompson mentioned, like for instance, the physical equipment for welding programs or shop programs.</t>
   </si>
   <si>
@@ -421,6 +478,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Chairman Rokita. Thank you for this informative hearing today, and thank you to the panel for your testimony and your time, really appreciated it.    I know a number of the members of this committee were State legislators, I have heard them indicate that, and I think we have all seen the heavy hand of the Federal Government as a State legislator. Many times these programs were forced down upon State legislatures, they call them ``incentives,'' but they are in the form of a mandate, many case, an unfunded mandate.    As a State legislator, I knew how very damaging they were to what we were trying to do on behalf of our local school districts. I am also a parent, so I have three children in public schools today, and I am very concerned about the state of our public schools, and that is why I was very proud of what we did with the ESEA, which was a direct attempt at making sure we ended these failed top down policies, and we reduced the Federal rule, and really restored local control to K-12 education, which was a bipartisan effort.    It was the intent of Congress. I thought the law was clear and unambiguous. We made every effort to try to drill down and polish to ensure that there would be no questions as to interpretation, but of course, now we are seeing that.    We had the director in several times expressing our concerns about implementation. And now we are faced with an implementation question. I am sure this is going to continue as time goes on.    I have a question and I guess I do not know who to ask it to, and please feel free to weigh in if you would like to, but I would like to begin with Dr. Gordon, because I noticed in your bio you focus on fiscal federalism and American educational policy and the current historical Federal role in elementary and secondary education, which I think is specific to this question.    The department has estimated that all but about 1,500 school districts around the country will be in compliance with what they are calling the ``special rule.'' In your testimony, you questioned this data. How valid do you think the estimate is?</t>
   </si>
   <si>
@@ -451,6 +514,9 @@
     <t xml:space="preserve">    Chairman Rokita. I thank the gentleman for yielding. Ms. Adams, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Adams</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chair, Ranking Member Fudge, and thank you to the panelists for your testimony.    Mr. Sargrad, what in your estimation would happen without an enforceable standard for compliance with the supplement not supplement requirement that can be used by State auditors, and what happens if it is left completely open for interpretation?</t>
   </si>
   <si>
@@ -476,6 +542,12 @@
   </si>
   <si>
     <t>400097</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman and ranking chairman as well. I am very sorry that I missed all of your discussion before this. But as a former school board member for nine years, I am just trying to understand. Certainly, the situation in San Diego, California is different, for example, then in Oklahoma.    But it seems that you are asking for a very clear rule on this, and at the same time, asking for perhaps no rule, and I wonder if you could clarify for me what you feel is absolutely best.    One of the things I know is that nothing makes people crazier, of course, when they are trying to follow the rules and having difficulty with it, and on the other hand you have just from a governance point of view the problem of a school board member who is trying to balance out very, very close numbers perhaps, percentages of young people in one group or another who need to be served, and it is minuscule in many cases, and yet they are having to decide and direct resources.    How would you do that? Because we are struggling with this, obviously. What needs to be done? How clear or on the other hand, how muddled? Which makes more sense?</t>
@@ -911,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +991,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,4133 +1013,4782 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>102</v>
+      </c>
       <c r="H87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G89" t="s">
+        <v>102</v>
+      </c>
       <c r="H89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G91" t="s">
+        <v>102</v>
+      </c>
       <c r="H91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G93" t="s">
+        <v>102</v>
+      </c>
       <c r="H93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s">
+        <v>113</v>
+      </c>
       <c r="H95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s">
+        <v>113</v>
+      </c>
       <c r="H97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s">
+        <v>113</v>
+      </c>
       <c r="H99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G101" t="s">
+        <v>113</v>
+      </c>
       <c r="H101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>108</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
       <c r="H103" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>108</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s">
+        <v>124</v>
+      </c>
       <c r="H105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G107" t="s">
+        <v>131</v>
+      </c>
       <c r="H107" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G109" t="s">
+        <v>131</v>
+      </c>
       <c r="H109" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G111" t="s">
+        <v>131</v>
+      </c>
       <c r="H111" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>113</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G114" t="s">
+        <v>131</v>
+      </c>
       <c r="H114" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G116" t="s">
+        <v>131</v>
+      </c>
       <c r="H116" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>144</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>144</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>144</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>144</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>134</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G127" t="s">
+        <v>154</v>
+      </c>
       <c r="H127" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>134</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G129" t="s">
+        <v>154</v>
+      </c>
       <c r="H129" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G131" t="s">
+        <v>154</v>
+      </c>
       <c r="H131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G133" t="s">
+        <v>154</v>
+      </c>
       <c r="H133" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>134</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G135" t="s">
+        <v>154</v>
+      </c>
       <c r="H135" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>166</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>166</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>166</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>153</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G145" t="s">
+        <v>176</v>
+      </c>
       <c r="H145" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>153</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G147" t="s">
+        <v>176</v>
+      </c>
       <c r="H147" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>153</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>175</v>
+      </c>
+      <c r="G149" t="s">
+        <v>176</v>
+      </c>
       <c r="H149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>177</v>
+      </c>
+      <c r="I149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
       <c r="H152" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
       <c r="H154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
       <c r="H156" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
       <c r="H158" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
       <c r="H160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
       <c r="H162" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
       <c r="H164" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
       <c r="H166" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
       <c r="H168" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
       <c r="H170" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
       <c r="H172" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>182</v>
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg21538.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21538.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412426</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rokita</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412327</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Fudge</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>412600</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Clark</t>
@@ -983,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,7 +1003,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4779 +1028,5084 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>51</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>51</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>88</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>85</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>85</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G91" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>22</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G93" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H93" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H97" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G99" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G101" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H101" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G107" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H109" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G111" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H111" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>31</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H114" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G116" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H116" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="I116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>144</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>148</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>144</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>148</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>148</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>144</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G129" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G131" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G133" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I133" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G135" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>166</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>170</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>166</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>170</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>22</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>166</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>170</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>28</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>166</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>170</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G145" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="H145" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I145" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>28</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G147" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="H147" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I147" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>28</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G149" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>34</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>28</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J154" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>28</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J156" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>22</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>25</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H160" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>22</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>25</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>28</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H164" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I164" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>28</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>28</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G168" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I168" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I170" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J170" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I172" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J172" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>206</v>
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
